--- a/CSC 120 34/Excel/Chapter 2/e02h1Loans_AmooMichael.xlsx
+++ b/CSC 120 34/Excel/Chapter 2/e02h1Loans_AmooMichael.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exploring Series\Dropbox\Pearson Exploring 2019\Chapter 2\Start Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.amoo\Documents\GitHub\HU-CSC-Work\CSC 120 34\Excel\Chapter 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{633F927E-47CA-48AD-8333-AA3B3D8A5214}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAEAF9A-8015-45AE-A193-00CCD1ADC1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13845" yWindow="315" windowWidth="13740" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
     <sheet name="Payment Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -643,40 +654,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -684,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
@@ -719,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>452786</v>
       </c>
@@ -730,18 +743,27 @@
         <f>B8*0.2</f>
         <v>80000</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17">
+        <f>B8-C8</f>
+        <v>320000</v>
+      </c>
       <c r="E8" s="5">
         <v>3.6249999999999998E-2</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <f>E8/$B$5</f>
+        <v>3.0208333333333333E-3</v>
+      </c>
       <c r="G8" s="3">
         <v>25</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <f>G8*B$5</f>
+        <v>300</v>
+      </c>
       <c r="I8" s="28">
         <f>D8/B8</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="2">
         <v>43221</v>
@@ -751,7 +773,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>453000</v>
       </c>
@@ -761,28 +783,37 @@
       <c r="C9" s="4">
         <v>60000</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17">
+        <f t="shared" ref="D9:D12" si="0">B9-C9</f>
+        <v>290000</v>
+      </c>
       <c r="E9" s="5">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="18">
+        <f t="shared" ref="F9:F12" si="1">E9/$B$5</f>
+        <v>3.283333333333333E-3</v>
+      </c>
       <c r="G9" s="3">
         <v>30</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="19">
+        <f>G9*B$5</f>
+        <v>360</v>
+      </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9:I12" si="0">D9/B9</f>
-        <v>0</v>
+        <f t="shared" ref="I9:I12" si="2">D9/B9</f>
+        <v>0.82857142857142863</v>
       </c>
       <c r="J9" s="2">
         <v>43407</v>
       </c>
       <c r="K9" s="27">
-        <f t="shared" ref="K9:K12" si="1">YEAR(J9)+G9</f>
+        <f t="shared" ref="K9:K12" si="3">YEAR(J9)+G9</f>
         <v>2048</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>453025</v>
       </c>
@@ -792,28 +823,37 @@
       <c r="C10" s="4">
         <v>30000</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>145500</v>
+      </c>
       <c r="E10" s="5">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>2.9583333333333332E-3</v>
+      </c>
       <c r="G10" s="3">
         <v>25</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="19">
+        <f t="shared" ref="H10:H12" si="4">G10*B$5</f>
+        <v>300</v>
+      </c>
       <c r="I10" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.82905982905982911</v>
       </c>
       <c r="J10" s="2">
         <v>43565</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>452600</v>
       </c>
@@ -823,28 +863,37 @@
       <c r="C11" s="4">
         <v>58000</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>207950</v>
+      </c>
       <c r="E11" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
       <c r="G11" s="3">
         <v>15</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
       <c r="I11" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.78191389358902053</v>
       </c>
       <c r="J11" s="2">
         <v>43752</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>452638</v>
       </c>
@@ -854,28 +903,37 @@
       <c r="C12" s="4">
         <v>65000</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>264750</v>
+      </c>
       <c r="E12" s="5">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
+        <v>2.7083333333333334E-3</v>
+      </c>
       <c r="G12" s="3">
         <v>30</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
       <c r="I12" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.80288097043214557</v>
       </c>
       <c r="J12" s="2">
         <v>43865</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
@@ -883,7 +941,7 @@
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
@@ -897,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -906,7 +964,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -915,7 +973,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -924,7 +982,7 @@
       <c r="D18" s="21"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -933,7 +991,7 @@
       <c r="D19" s="21"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -942,7 +1000,7 @@
       <c r="D20" s="21"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -964,23 +1022,23 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>26</v>
       </c>
@@ -993,13 +1051,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>43202</v>
+        <v>45383</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
@@ -1008,7 +1066,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +1080,7 @@
         <v>3.6249999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1094,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1102,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>392786</v>
       </c>
@@ -1098,7 +1156,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>393000</v>
       </c>
@@ -1123,7 +1181,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>393025</v>
       </c>
@@ -1148,7 +1206,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>392600</v>
       </c>
@@ -1173,7 +1231,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>392638</v>
       </c>

--- a/CSC 120 34/Excel/Chapter 2/e02h1Loans_AmooMichael.xlsx
+++ b/CSC 120 34/Excel/Chapter 2/e02h1Loans_AmooMichael.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.amoo\Documents\GitHub\HU-CSC-Work\CSC 120 34\Excel\Chapter 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackson.wiley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAEAF9A-8015-45AE-A193-00CCD1ADC1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95784C-036F-4D62-A3DF-0ABB726B132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="315" windowWidth="13740" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="240" windowWidth="18765" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -798,18 +798,18 @@
         <v>30</v>
       </c>
       <c r="H9" s="19">
-        <f>G9*B$5</f>
+        <f t="shared" ref="H9:H12" si="2">G9*B$5</f>
         <v>360</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9:I12" si="2">D9/B9</f>
+        <f t="shared" ref="I9:I12" si="3">D9/B9</f>
         <v>0.82857142857142863</v>
       </c>
       <c r="J9" s="2">
         <v>43407</v>
       </c>
       <c r="K9" s="27">
-        <f t="shared" ref="K9:K12" si="3">YEAR(J9)+G9</f>
+        <f t="shared" ref="K9:K12" si="4">YEAR(J9)+G9</f>
         <v>2048</v>
       </c>
     </row>
@@ -838,18 +838,18 @@
         <v>25</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" ref="H10:H12" si="4">G10*B$5</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82905982905982911</v>
       </c>
       <c r="J10" s="2">
         <v>43565</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2044</v>
       </c>
     </row>
@@ -878,18 +878,18 @@
         <v>15</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78191389358902053</v>
       </c>
       <c r="J11" s="2">
         <v>43752</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
     </row>
@@ -918,18 +918,18 @@
         <v>30</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80288097043214557</v>
       </c>
       <c r="J12" s="2">
         <v>43865</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
     </row>
